--- a/frontend/public/Multiturn Gearbox.xlsx
+++ b/frontend/public/Multiturn Gearbox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELLL\Desktop\AUMA_DOC\RFQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Documents\Auma_Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC969FD5-AF79-454C-864A-B270E34E3597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1247BDEE-8AAA-43E4-A9E7-3E764A6D3154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Gearbox Type</t>
   </si>
@@ -76,21 +76,6 @@
   </si>
   <si>
     <t>Max Valve modulating Torque</t>
-  </si>
-  <si>
-    <t>GK 10.2</t>
-  </si>
-  <si>
-    <t>SA 10.2/SAR 10.2</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>G0</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -474,13 +459,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="91.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -544,55 +529,23 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4">
-        <v>4.2361111111111113E-2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3">
-        <v>40</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="H2" s="3">
-        <v>135</v>
-      </c>
-      <c r="I2" s="3">
-        <v>66</v>
-      </c>
-      <c r="J2" s="3">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="3">
-        <v>120</v>
-      </c>
-      <c r="P2" s="3">
-        <v>60</v>
-      </c>
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
